--- a/po_analysis_by_asin/B0C8W4N4TM_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8W4N4TM_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,119 +452,119 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45299</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45348</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45355</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45362</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45390</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45404</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45411</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45418</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45425</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45432</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45439</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45502</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45509</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45530</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>2</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45537</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
@@ -580,9 +580,25 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45628</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B20" t="n">
         <v>2</v>
       </c>
     </row>
@@ -597,7 +613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -619,73 +635,81 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45474</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45627</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B11" t="n">
         <v>2</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C8W4N4TM_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8W4N4TM_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -629,7 +630,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -711,6 +712,425 @@
       </c>
       <c r="B11" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.12962719059146</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.21864566924125</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>16</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.383043454587796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.97509222256699</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.546015680326055</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.35350806162026</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.676465739611236</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.68449883920265</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.867480309804237</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.94802828828271</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9653938201852564</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.98410944887475</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.433291176711614</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14.86482729486391</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7483708219831098</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.72614931320381</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.3835598386543985</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.59764376173176</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.691999995051094</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12.97395218126017</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.7873826441047792</v>
+      </c>
+      <c r="D12" t="n">
+        <v>12.52665219822832</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.3916888807960443</v>
+      </c>
+      <c r="D13" t="n">
+        <v>12.75004942992916</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-1.212338940578789</v>
+      </c>
+      <c r="D14" t="n">
+        <v>12.23479297786222</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-1.393740032018524</v>
+      </c>
+      <c r="D15" t="n">
+        <v>11.66376934431199</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-3.42563805856983</v>
+      </c>
+      <c r="D16" t="n">
+        <v>10.49677812243933</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.430887466845317</v>
+      </c>
+      <c r="D17" t="n">
+        <v>9.589121208867454</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-4.413675324378421</v>
+      </c>
+      <c r="D18" t="n">
+        <v>8.960495599177872</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-4.32429116181092</v>
+      </c>
+      <c r="D19" t="n">
+        <v>8.478464465824882</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-7.559937621876601</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5.096206596593663</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-8.457119748675607</v>
+      </c>
+      <c r="D21" t="n">
+        <v>5.41313828204816</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-8.208978728027555</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4.833428558350952</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.191131866093768</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.597097488136352</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-8.776894284605614</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.30834035782599</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.97784141574739</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.537732214343606</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-9.026300813279345</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.515151305788692</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-9.112094714213164</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.655002724884328</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-9.964426696951113</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.85654569311634</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8W4N4TM_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8W4N4TM_po_data.xlsx
@@ -725,7 +725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -744,16 +744,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -762,12 +752,6 @@
       <c r="B2" t="n">
         <v>16</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.12962719059146</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.21864566924125</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -776,12 +760,6 @@
       <c r="B3" t="n">
         <v>16</v>
       </c>
-      <c r="C3" t="n">
-        <v>9.383043454587796</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.97509222256699</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -790,12 +768,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>3.546015680326055</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16.35350806162026</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -804,12 +776,6 @@
       <c r="B5" t="n">
         <v>9</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.676465739611236</v>
-      </c>
-      <c r="D5" t="n">
-        <v>15.68449883920265</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -818,12 +784,6 @@
       <c r="B6" t="n">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
-        <v>1.867480309804237</v>
-      </c>
-      <c r="D6" t="n">
-        <v>14.94802828828271</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -832,12 +792,6 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>0.9653938201852564</v>
-      </c>
-      <c r="D7" t="n">
-        <v>14.98410944887475</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -846,12 +800,6 @@
       <c r="B8" t="n">
         <v>8</v>
       </c>
-      <c r="C8" t="n">
-        <v>1.433291176711614</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.86482729486391</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -860,12 +808,6 @@
       <c r="B9" t="n">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.7483708219831098</v>
-      </c>
-      <c r="D9" t="n">
-        <v>13.72614931320381</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -874,12 +816,6 @@
       <c r="B10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>-0.3835598386543985</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.59764376173176</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -888,12 +824,6 @@
       <c r="B11" t="n">
         <v>6</v>
       </c>
-      <c r="C11" t="n">
-        <v>-0.691999995051094</v>
-      </c>
-      <c r="D11" t="n">
-        <v>12.97395218126017</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -902,12 +832,6 @@
       <c r="B12" t="n">
         <v>6</v>
       </c>
-      <c r="C12" t="n">
-        <v>-0.7873826441047792</v>
-      </c>
-      <c r="D12" t="n">
-        <v>12.52665219822832</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -916,12 +840,6 @@
       <c r="B13" t="n">
         <v>6</v>
       </c>
-      <c r="C13" t="n">
-        <v>-0.3916888807960443</v>
-      </c>
-      <c r="D13" t="n">
-        <v>12.75004942992916</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -930,12 +848,6 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>-1.212338940578789</v>
-      </c>
-      <c r="D14" t="n">
-        <v>12.23479297786222</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -944,12 +856,6 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>-1.393740032018524</v>
-      </c>
-      <c r="D15" t="n">
-        <v>11.66376934431199</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -958,12 +864,6 @@
       <c r="B16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>-3.42563805856983</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10.49677812243933</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -972,12 +872,6 @@
       <c r="B17" t="n">
         <v>3</v>
       </c>
-      <c r="C17" t="n">
-        <v>-3.430887466845317</v>
-      </c>
-      <c r="D17" t="n">
-        <v>9.589121208867454</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -986,12 +880,6 @@
       <c r="B18" t="n">
         <v>2</v>
       </c>
-      <c r="C18" t="n">
-        <v>-4.413675324378421</v>
-      </c>
-      <c r="D18" t="n">
-        <v>8.960495599177872</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1000,12 +888,6 @@
       <c r="B19" t="n">
         <v>2</v>
       </c>
-      <c r="C19" t="n">
-        <v>-4.32429116181092</v>
-      </c>
-      <c r="D19" t="n">
-        <v>8.478464465824882</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1014,12 +896,6 @@
       <c r="B20" t="n">
         <v>0</v>
       </c>
-      <c r="C20" t="n">
-        <v>-7.559937621876601</v>
-      </c>
-      <c r="D20" t="n">
-        <v>5.096206596593663</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1028,12 +904,6 @@
       <c r="B21" t="n">
         <v>0</v>
       </c>
-      <c r="C21" t="n">
-        <v>-8.457119748675607</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5.41313828204816</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1042,12 +912,6 @@
       <c r="B22" t="n">
         <v>0</v>
       </c>
-      <c r="C22" t="n">
-        <v>-8.208978728027555</v>
-      </c>
-      <c r="D22" t="n">
-        <v>4.833428558350952</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1056,12 +920,6 @@
       <c r="B23" t="n">
         <v>0</v>
       </c>
-      <c r="C23" t="n">
-        <v>-8.191131866093768</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.597097488136352</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1070,12 +928,6 @@
       <c r="B24" t="n">
         <v>0</v>
       </c>
-      <c r="C24" t="n">
-        <v>-8.776894284605614</v>
-      </c>
-      <c r="D24" t="n">
-        <v>4.30834035782599</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1084,12 +936,6 @@
       <c r="B25" t="n">
         <v>0</v>
       </c>
-      <c r="C25" t="n">
-        <v>-8.97784141574739</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.537732214343606</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1098,12 +944,6 @@
       <c r="B26" t="n">
         <v>0</v>
       </c>
-      <c r="C26" t="n">
-        <v>-9.026300813279345</v>
-      </c>
-      <c r="D26" t="n">
-        <v>4.515151305788692</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1112,12 +952,6 @@
       <c r="B27" t="n">
         <v>0</v>
       </c>
-      <c r="C27" t="n">
-        <v>-9.112094714213164</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3.655002724884328</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1125,12 +959,6 @@
       </c>
       <c r="B28" t="n">
         <v>0</v>
-      </c>
-      <c r="C28" t="n">
-        <v>-9.964426696951113</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.85654569311634</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C8W4N4TM_po_data.xlsx
+++ b/po_analysis_by_asin/B0C8W4N4TM_po_data.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,6 +603,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -614,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,6 +722,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45688.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -725,7 +741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,7 +774,7 @@
         <v>45130.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +830,7 @@
         <v>45410.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -846,7 +862,7 @@
         <v>45438.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +870,7 @@
         <v>45445.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -862,7 +878,7 @@
         <v>45508.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -878,7 +894,7 @@
         <v>45536.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -899,7 +915,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45641.99999999999</v>
+        <v>45662.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -907,7 +923,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45648.99999999999</v>
+        <v>45669.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -915,7 +931,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45655.99999999999</v>
+        <v>45676.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -923,7 +939,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45662.99999999999</v>
+        <v>45683.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -931,7 +947,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45669.99999999999</v>
+        <v>45690.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -939,7 +955,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45676.99999999999</v>
+        <v>45697.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -947,7 +963,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45683.99999999999</v>
+        <v>45704.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -955,9 +971,17 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45690.99999999999</v>
+        <v>45711.99999999999</v>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45718.99999999999</v>
+      </c>
+      <c r="B29" t="n">
         <v>0</v>
       </c>
     </row>
